--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/45/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/45/FD_Curve.xlsx
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>6.66725</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>6667.25</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>6.95251</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>6952.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>8.910440000000001</v>
+        <v>7.08995</v>
       </c>
       <c r="C10" t="n">
-        <v>8910.440000000001</v>
+        <v>7089.95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>9.175370000000001</v>
+        <v>7.17617</v>
       </c>
       <c r="C11" t="n">
-        <v>9175.370000000001</v>
+        <v>7176.17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309773</v>
+        <v>0.309817</v>
       </c>
       <c r="B12" t="n">
-        <v>9.330290000000002</v>
+        <v>7.24213</v>
       </c>
       <c r="C12" t="n">
-        <v>9330.290000000001</v>
+        <v>7242.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340742</v>
       </c>
       <c r="B13" t="n">
-        <v>9.38322</v>
+        <v>7.31104</v>
       </c>
       <c r="C13" t="n">
-        <v>9383.219999999999</v>
+        <v>7311.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371667</v>
       </c>
       <c r="B14" t="n">
-        <v>9.418040000000001</v>
+        <v>7.374350000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>9418.040000000001</v>
+        <v>7374.35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.402592</v>
       </c>
       <c r="B15" t="n">
-        <v>9.44125</v>
+        <v>7.42801</v>
       </c>
       <c r="C15" t="n">
-        <v>9441.25</v>
+        <v>7428.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433517</v>
       </c>
       <c r="B16" t="n">
-        <v>9.460040000000001</v>
+        <v>7.47737</v>
       </c>
       <c r="C16" t="n">
-        <v>9460.040000000001</v>
+        <v>7477.37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.464442</v>
       </c>
       <c r="B17" t="n">
-        <v>9.47308</v>
+        <v>7.52637</v>
       </c>
       <c r="C17" t="n">
-        <v>9473.08</v>
+        <v>7526.37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495367</v>
       </c>
       <c r="B18" t="n">
-        <v>9.487410000000001</v>
+        <v>7.56899</v>
       </c>
       <c r="C18" t="n">
-        <v>9487.41</v>
+        <v>7568.99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.526292</v>
       </c>
       <c r="B19" t="n">
-        <v>9.497620000000001</v>
+        <v>7.61267</v>
       </c>
       <c r="C19" t="n">
-        <v>9497.620000000001</v>
+        <v>7612.67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557217</v>
       </c>
       <c r="B20" t="n">
-        <v>9.506120000000001</v>
+        <v>7.652</v>
       </c>
       <c r="C20" t="n">
-        <v>9506.120000000001</v>
+        <v>7652</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.5881420000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>9.51252</v>
+        <v>7.6908</v>
       </c>
       <c r="C21" t="n">
-        <v>9512.52</v>
+        <v>7690.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.619184</v>
       </c>
       <c r="B22" t="n">
-        <v>9.51694</v>
+        <v>7.72741</v>
       </c>
       <c r="C22" t="n">
-        <v>9516.940000000001</v>
+        <v>7727.41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650313</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>9.521090000000001</v>
+        <v>7.761970000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>9521.09</v>
+        <v>7761.97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.6815290000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>9.523400000000001</v>
+        <v>7.79532</v>
       </c>
       <c r="C24" t="n">
-        <v>9523.4</v>
+        <v>7795.32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.712706</v>
       </c>
       <c r="B25" t="n">
-        <v>9.5244</v>
+        <v>7.82724</v>
       </c>
       <c r="C25" t="n">
-        <v>9524.4</v>
+        <v>7827.24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.743879</v>
       </c>
       <c r="B26" t="n">
-        <v>9.52516</v>
+        <v>7.85754</v>
       </c>
       <c r="C26" t="n">
-        <v>9525.16</v>
+        <v>7857.54</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.775056</v>
       </c>
       <c r="B27" t="n">
-        <v>9.524510000000001</v>
+        <v>7.88696</v>
       </c>
       <c r="C27" t="n">
-        <v>9524.51</v>
+        <v>7886.96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.8062279999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>9.522729999999999</v>
+        <v>7.91545</v>
       </c>
       <c r="C28" t="n">
-        <v>9522.73</v>
+        <v>7915.45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.837401</v>
       </c>
       <c r="B29" t="n">
-        <v>9.520280000000001</v>
+        <v>7.94275</v>
       </c>
       <c r="C29" t="n">
-        <v>9520.280000000001</v>
+        <v>7942.75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.868578</v>
       </c>
       <c r="B30" t="n">
-        <v>9.517160000000001</v>
+        <v>7.96909</v>
       </c>
       <c r="C30" t="n">
-        <v>9517.16</v>
+        <v>7969.09</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899707</v>
+        <v>0.89975</v>
       </c>
       <c r="B31" t="n">
-        <v>9.513219999999999</v>
+        <v>7.99455</v>
       </c>
       <c r="C31" t="n">
-        <v>9513.219999999999</v>
+        <v>7994.55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.9309229999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>9.50841</v>
+        <v>8.019120000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>9508.41</v>
+        <v>8019.12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.9621</v>
       </c>
       <c r="B33" t="n">
-        <v>9.50296</v>
+        <v>8.04288</v>
       </c>
       <c r="C33" t="n">
-        <v>9502.959999999999</v>
+        <v>8042.88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993229</v>
+        <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>9.496740000000001</v>
+        <v>8.06583</v>
       </c>
       <c r="C34" t="n">
-        <v>9496.74</v>
+        <v>8065.83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02454</v>
+        <v>1.02458</v>
       </c>
       <c r="B35" t="n">
-        <v>9.48982</v>
+        <v>8.088050000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>9489.82</v>
+        <v>8088.05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05592</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>9.482229999999999</v>
+        <v>8.109540000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>9482.23</v>
+        <v>8109.54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0873</v>
+        <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>9.47397</v>
+        <v>8.130369999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>9473.969999999999</v>
+        <v>8130.37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11868</v>
+        <v>1.11873</v>
       </c>
       <c r="B38" t="n">
-        <v>9.464980000000001</v>
+        <v>8.15056</v>
       </c>
       <c r="C38" t="n">
-        <v>9464.98</v>
+        <v>8150.56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15006</v>
+        <v>1.15011</v>
       </c>
       <c r="B39" t="n">
-        <v>9.455410000000001</v>
+        <v>8.17014</v>
       </c>
       <c r="C39" t="n">
-        <v>9455.41</v>
+        <v>8170.14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18144</v>
+        <v>1.18149</v>
       </c>
       <c r="B40" t="n">
-        <v>9.445110000000001</v>
+        <v>8.189060000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>9445.110000000001</v>
+        <v>8189.06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21282</v>
+        <v>1.21287</v>
       </c>
       <c r="B41" t="n">
-        <v>9.434010000000001</v>
+        <v>8.20744</v>
       </c>
       <c r="C41" t="n">
-        <v>9434.01</v>
+        <v>8207.440000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.2442</v>
+        <v>1.24425</v>
       </c>
       <c r="B42" t="n">
-        <v>9.422000000000001</v>
+        <v>8.225239999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>9422</v>
+        <v>8225.24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27558</v>
+        <v>1.27563</v>
       </c>
       <c r="B43" t="n">
-        <v>9.40887</v>
+        <v>8.24253</v>
       </c>
       <c r="C43" t="n">
-        <v>9408.870000000001</v>
+        <v>8242.530000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30697</v>
+        <v>1.30701</v>
       </c>
       <c r="B44" t="n">
-        <v>9.394909999999999</v>
+        <v>8.259290000000002</v>
       </c>
       <c r="C44" t="n">
-        <v>9394.91</v>
+        <v>8259.290000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33835</v>
+        <v>1.33839</v>
       </c>
       <c r="B45" t="n">
-        <v>9.3802</v>
+        <v>8.275530000000002</v>
       </c>
       <c r="C45" t="n">
-        <v>9380.200000000001</v>
+        <v>8275.530000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36972</v>
+        <v>1.36977</v>
       </c>
       <c r="B46" t="n">
-        <v>9.36491</v>
+        <v>8.291320000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>9364.91</v>
+        <v>8291.32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40111</v>
+        <v>1.40115</v>
       </c>
       <c r="B47" t="n">
-        <v>9.348790000000001</v>
+        <v>8.306610000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>9348.790000000001</v>
+        <v>8306.610000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43249</v>
+        <v>1.43253</v>
       </c>
       <c r="B48" t="n">
-        <v>9.33198</v>
+        <v>8.321430000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>9331.98</v>
+        <v>8321.43</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46387</v>
+        <v>1.46391</v>
       </c>
       <c r="B49" t="n">
-        <v>9.31442</v>
+        <v>8.335850000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>9314.42</v>
+        <v>8335.85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49525</v>
+        <v>1.49489</v>
       </c>
       <c r="B50" t="n">
-        <v>9.295870000000001</v>
+        <v>8.349780000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>9295.870000000001</v>
+        <v>8349.780000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52663</v>
+        <v>1.52586</v>
       </c>
       <c r="B51" t="n">
-        <v>9.276530000000001</v>
+        <v>8.363290000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>9276.530000000001</v>
+        <v>8363.290000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55795</v>
+        <v>1.55683</v>
       </c>
       <c r="B52" t="n">
-        <v>9.25615</v>
+        <v>8.3764</v>
       </c>
       <c r="C52" t="n">
-        <v>9256.15</v>
+        <v>8376.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58891</v>
+        <v>1.58779</v>
       </c>
       <c r="B53" t="n">
-        <v>9.234680000000001</v>
+        <v>8.389100000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>9234.68</v>
+        <v>8389.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61988</v>
+        <v>1.61876</v>
       </c>
       <c r="B54" t="n">
-        <v>9.21181</v>
+        <v>8.40138</v>
       </c>
       <c r="C54" t="n">
-        <v>9211.809999999999</v>
+        <v>8401.379999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.65085</v>
+        <v>1.64973</v>
       </c>
       <c r="B55" t="n">
-        <v>9.187950000000001</v>
+        <v>8.413290000000002</v>
       </c>
       <c r="C55" t="n">
-        <v>9187.950000000001</v>
+        <v>8413.290000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68182</v>
+        <v>1.6807</v>
       </c>
       <c r="B56" t="n">
-        <v>9.162840000000001</v>
+        <v>8.424809999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>9162.84</v>
+        <v>8424.809999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71279</v>
+        <v>1.71167</v>
       </c>
       <c r="B57" t="n">
-        <v>9.136010000000001</v>
+        <v>8.43595</v>
       </c>
       <c r="C57" t="n">
-        <v>9136.01</v>
+        <v>8435.950000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74375</v>
+        <v>1.74263</v>
       </c>
       <c r="B58" t="n">
-        <v>9.108139999999999</v>
+        <v>8.44674</v>
       </c>
       <c r="C58" t="n">
-        <v>9108.139999999999</v>
+        <v>8446.74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77472</v>
+        <v>1.7736</v>
       </c>
       <c r="B59" t="n">
-        <v>9.07934</v>
+        <v>8.457180000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>9079.34</v>
+        <v>8457.18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80569</v>
+        <v>1.80457</v>
       </c>
       <c r="B60" t="n">
-        <v>9.049299999999999</v>
+        <v>8.46725</v>
       </c>
       <c r="C60" t="n">
-        <v>9049.299999999999</v>
+        <v>8467.25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83651</v>
+        <v>1.83554</v>
       </c>
       <c r="B61" t="n">
-        <v>9.01787</v>
+        <v>8.476979999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>9017.870000000001</v>
+        <v>8476.98</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86763</v>
+        <v>1.8665</v>
       </c>
       <c r="B62" t="n">
-        <v>8.98475</v>
+        <v>8.486330000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>8984.75</v>
+        <v>8486.33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89865</v>
+        <v>1.89747</v>
       </c>
       <c r="B63" t="n">
-        <v>8.95025</v>
+        <v>8.495360000000002</v>
       </c>
       <c r="C63" t="n">
-        <v>8950.25</v>
+        <v>8495.360000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.9295</v>
+        <v>1.92844</v>
       </c>
       <c r="B64" t="n">
-        <v>8.914200000000001</v>
+        <v>8.504040000000002</v>
       </c>
       <c r="C64" t="n">
-        <v>8914.200000000001</v>
+        <v>8504.040000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.96068</v>
+        <v>1.95941</v>
       </c>
       <c r="B65" t="n">
-        <v>8.87589</v>
+        <v>8.51239</v>
       </c>
       <c r="C65" t="n">
-        <v>8875.889999999999</v>
+        <v>8512.389999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99139</v>
+        <v>1.99038</v>
       </c>
       <c r="B66" t="n">
-        <v>8.83639</v>
+        <v>8.52041</v>
       </c>
       <c r="C66" t="n">
-        <v>8836.389999999999</v>
+        <v>8520.41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02268</v>
+        <v>2.02118</v>
       </c>
       <c r="B67" t="n">
-        <v>8.793750000000001</v>
+        <v>8.5281</v>
       </c>
       <c r="C67" t="n">
-        <v>8793.75</v>
+        <v>8528.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05351</v>
+        <v>2.05174</v>
       </c>
       <c r="B68" t="n">
-        <v>8.749549999999999</v>
+        <v>8.535459999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>8749.549999999999</v>
+        <v>8535.459999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08473</v>
+        <v>2.08229</v>
       </c>
       <c r="B69" t="n">
-        <v>8.702069999999999</v>
+        <v>8.542479999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>8702.07</v>
+        <v>8542.48</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.1154</v>
+        <v>2.11284</v>
       </c>
       <c r="B70" t="n">
-        <v>8.65288</v>
+        <v>8.549200000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>8652.879999999999</v>
+        <v>8549.200000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14681</v>
+        <v>2.1434</v>
       </c>
       <c r="B71" t="n">
-        <v>8.600149999999999</v>
+        <v>8.555629999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>8600.15</v>
+        <v>8555.629999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17749</v>
+        <v>2.17395</v>
       </c>
       <c r="B72" t="n">
-        <v>8.545440000000001</v>
+        <v>8.561719999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>8545.440000000001</v>
+        <v>8561.719999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20866</v>
+        <v>2.20451</v>
       </c>
       <c r="B73" t="n">
-        <v>8.487170000000001</v>
+        <v>8.56752</v>
       </c>
       <c r="C73" t="n">
-        <v>8487.17</v>
+        <v>8567.52</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23971</v>
+        <v>2.23507</v>
       </c>
       <c r="B74" t="n">
-        <v>8.426410000000001</v>
+        <v>8.573</v>
       </c>
       <c r="C74" t="n">
-        <v>8426.41</v>
+        <v>8573</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.27064</v>
+        <v>2.26562</v>
       </c>
       <c r="B75" t="n">
-        <v>8.36251</v>
+        <v>8.578200000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>8362.51</v>
+        <v>8578.200000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.30165</v>
+        <v>2.29617</v>
       </c>
       <c r="B76" t="n">
-        <v>8.295299999999999</v>
+        <v>8.583069999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>8295.299999999999</v>
+        <v>8583.07</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33263</v>
+        <v>2.32673</v>
       </c>
       <c r="B77" t="n">
-        <v>8.2255</v>
+        <v>8.587680000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>8225.5</v>
+        <v>8587.68</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36373</v>
+        <v>2.35728</v>
       </c>
       <c r="B78" t="n">
-        <v>8.15192</v>
+        <v>8.59197</v>
       </c>
       <c r="C78" t="n">
-        <v>8151.92</v>
+        <v>8591.969999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39444</v>
+        <v>2.38784</v>
       </c>
       <c r="B79" t="n">
-        <v>8.07662</v>
+        <v>8.595979999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>8076.62</v>
+        <v>8595.98</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42592</v>
+        <v>2.41839</v>
       </c>
       <c r="B80" t="n">
-        <v>7.99722</v>
+        <v>8.599690000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>7997.22</v>
+        <v>8599.690000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45773</v>
+        <v>2.44984</v>
       </c>
       <c r="B81" t="n">
-        <v>7.91294</v>
+        <v>8.603190000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>7912.94</v>
+        <v>8603.190000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.4892</v>
+        <v>2.48141</v>
       </c>
       <c r="B82" t="n">
-        <v>7.82754</v>
+        <v>8.60642</v>
       </c>
       <c r="C82" t="n">
-        <v>7827.54</v>
+        <v>8606.42</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51992</v>
+        <v>2.51299</v>
       </c>
       <c r="B83" t="n">
-        <v>7.74174</v>
+        <v>8.609290000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>7741.74</v>
+        <v>8609.290000000001</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54974</v>
+        <v>2.54456</v>
       </c>
       <c r="B84" t="n">
-        <v>7.65591</v>
+        <v>8.611840000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>7655.91</v>
+        <v>8611.84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58164</v>
+        <v>2.57613</v>
       </c>
       <c r="B85" t="n">
-        <v>7.56219</v>
+        <v>8.61407</v>
       </c>
       <c r="C85" t="n">
-        <v>7562.19</v>
+        <v>8614.07</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61293</v>
+        <v>2.60771</v>
       </c>
       <c r="B86" t="n">
-        <v>7.46849</v>
+        <v>8.615950000000002</v>
       </c>
       <c r="C86" t="n">
-        <v>7468.49</v>
+        <v>8615.950000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64304</v>
+        <v>2.63928</v>
       </c>
       <c r="B87" t="n">
-        <v>7.37545</v>
+        <v>8.617510000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>7375.45</v>
+        <v>8617.51</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67291</v>
+        <v>2.67085</v>
       </c>
       <c r="B88" t="n">
-        <v>7.28294</v>
+        <v>8.61871</v>
       </c>
       <c r="C88" t="n">
-        <v>7282.94</v>
+        <v>8618.709999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70516</v>
+        <v>2.70243</v>
       </c>
       <c r="B89" t="n">
-        <v>7.18001</v>
+        <v>8.61955</v>
       </c>
       <c r="C89" t="n">
-        <v>7180.01</v>
+        <v>8619.549999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73716</v>
+        <v>2.734</v>
       </c>
       <c r="B90" t="n">
-        <v>7.07841</v>
+        <v>8.620030000000002</v>
       </c>
       <c r="C90" t="n">
-        <v>7078.41</v>
+        <v>8620.030000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76798</v>
+        <v>2.76507</v>
       </c>
       <c r="B91" t="n">
-        <v>6.97845</v>
+        <v>8.62017</v>
       </c>
       <c r="C91" t="n">
-        <v>6978.45</v>
+        <v>8620.17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79838</v>
+        <v>2.79579</v>
       </c>
       <c r="B92" t="n">
-        <v>6.880470000000001</v>
+        <v>8.61992</v>
       </c>
       <c r="C92" t="n">
-        <v>6880.47</v>
+        <v>8619.92</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82814</v>
+        <v>2.82651</v>
       </c>
       <c r="B93" t="n">
-        <v>6.78444</v>
+        <v>8.619260000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>6784.44</v>
+        <v>8619.26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85917</v>
+        <v>2.85723</v>
       </c>
       <c r="B94" t="n">
-        <v>6.683260000000001</v>
+        <v>8.618209999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>6683.26</v>
+        <v>8618.209999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89208</v>
+        <v>2.88795</v>
       </c>
       <c r="B95" t="n">
-        <v>6.578510000000001</v>
+        <v>8.61678</v>
       </c>
       <c r="C95" t="n">
-        <v>6578.51</v>
+        <v>8616.780000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92324</v>
+        <v>2.91867</v>
       </c>
       <c r="B96" t="n">
-        <v>6.47636</v>
+        <v>8.61496</v>
       </c>
       <c r="C96" t="n">
-        <v>6476.36</v>
+        <v>8614.959999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95433</v>
+        <v>2.94939</v>
       </c>
       <c r="B97" t="n">
-        <v>6.3768</v>
+        <v>8.612770000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>6376.8</v>
+        <v>8612.77</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98491</v>
+        <v>2.98011</v>
       </c>
       <c r="B98" t="n">
-        <v>6.27948</v>
+        <v>8.61013</v>
       </c>
       <c r="C98" t="n">
-        <v>6279.48</v>
+        <v>8610.129999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01417</v>
+        <v>3.01083</v>
       </c>
       <c r="B99" t="n">
-        <v>6.18454</v>
+        <v>8.606870000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>6184.54</v>
+        <v>8606.870000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04342</v>
+        <v>3.04155</v>
       </c>
       <c r="B100" t="n">
-        <v>6.09175</v>
+        <v>8.60318</v>
       </c>
       <c r="C100" t="n">
-        <v>6091.75</v>
+        <v>8603.18</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07677</v>
+        <v>3.07227</v>
       </c>
       <c r="B101" t="n">
-        <v>5.98736</v>
+        <v>8.59906</v>
       </c>
       <c r="C101" t="n">
-        <v>5987.36</v>
+        <v>8599.059999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10877</v>
+        <v>3.10299</v>
       </c>
       <c r="B102" t="n">
-        <v>5.88521</v>
+        <v>8.59445</v>
       </c>
       <c r="C102" t="n">
-        <v>5885.21</v>
+        <v>8594.450000000001</v>
       </c>
     </row>
   </sheetData>
